--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>https://swgoh.gg/u/phink/</t>
+  </si>
+  <si>
+    <t>:flag_de:</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:flag_ua: </t>
   </si>
 </sst>
 </file>
@@ -731,6 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -743,13 +756,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -986,191 +998,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1499,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1663,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1918,7 +1745,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1936,7 +1763,7 @@
       <c r="F6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="44" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -1998,7 +1825,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="17" t="s">
         <v>51</v>
       </c>
@@ -2079,7 +1906,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="17" t="s">
         <v>50</v>
       </c>
@@ -2160,7 +1987,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="17" t="s">
         <v>91</v>
       </c>
@@ -2241,7 +2068,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="17" t="s">
         <v>49</v>
       </c>
@@ -2403,7 +2230,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2486,7 +2313,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="22" t="s">
         <v>64</v>
       </c>
@@ -2567,7 +2394,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
@@ -2580,12 +2407,12 @@
         <v>12</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="44" t="s">
         <v>93</v>
       </c>
       <c r="H14" s="14" t="str">
@@ -2648,7 +2475,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="22" t="s">
         <v>62</v>
       </c>
@@ -2729,7 +2556,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="22" t="s">
         <v>61</v>
       </c>
@@ -2810,7 +2637,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="22" t="s">
         <v>33</v>
       </c>
@@ -2823,10 +2650,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>74</v>
@@ -2891,7 +2718,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="22" t="s">
         <v>32</v>
       </c>
@@ -2972,7 +2799,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="22" t="s">
         <v>31</v>
       </c>
@@ -3053,7 +2880,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="22" t="s">
         <v>95</v>
       </c>
@@ -3134,7 +2961,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="22" t="s">
         <v>34</v>
       </c>
@@ -3215,7 +3042,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="22" t="s">
         <v>35</v>
       </c>
@@ -3296,7 +3123,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11" t="s">
         <v>97</v>
       </c>
@@ -3376,7 +3203,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -3459,7 +3286,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="22" t="s">
         <v>99</v>
       </c>
@@ -3540,7 +3367,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="22" t="s">
         <v>101</v>
       </c>
@@ -3621,7 +3448,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>42</v>
       </c>
@@ -3702,7 +3529,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="22" t="s">
         <v>106</v>
       </c>
@@ -3783,7 +3610,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="22" t="s">
         <v>43</v>
       </c>
@@ -3864,7 +3691,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="22" t="s">
         <v>44</v>
       </c>
@@ -3945,7 +3772,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="36" t="s">
         <v>45</v>
       </c>
@@ -4025,7 +3852,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="36" t="s">
         <v>60</v>
       </c>
@@ -4105,7 +3932,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="36" t="s">
         <v>46</v>
       </c>
@@ -4185,7 +4012,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="36" t="s">
         <v>47</v>
       </c>
@@ -4265,7 +4092,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="22" t="s">
         <v>48</v>
       </c>
@@ -4350,11 +4177,11 @@
     <sortCondition ref="D2:D29"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -761,7 +761,98 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1326,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,58 +2266,58 @@
         <v>MSK</v>
       </c>
       <c r="I11" s="26">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="28">
         <f>$I11+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L11" s="26">
         <f>$I11+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M11" s="26">
         <f>$I11+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>1</v>
       </c>
       <c r="N11" s="26">
         <f>$I11+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O11" s="26">
         <f>$I11+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P11" s="26">
         <f>$I11+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q11" s="26">
         <f>$I11+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="R11" s="26">
         <f>$I11+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S11" s="26">
         <f>$I11+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="T11" s="26">
         <f>$I11+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U11" s="26">
         <f>$I11+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V11" s="26">
         <f>$I11+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2258,58 +2349,58 @@
         <v>MSK</v>
       </c>
       <c r="I12" s="26">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="28">
         <f>$I12+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L12" s="26">
         <f>$I12+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M12" s="26">
         <f>$I12+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>1</v>
       </c>
       <c r="N12" s="26">
         <f>$I12+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O12" s="26">
         <f>$I12+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P12" s="26">
         <f>$I12+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q12" s="26">
         <f>$I12+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="R12" s="26">
         <f>$I12+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S12" s="26">
         <f>$I12+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="T12" s="26">
         <f>$I12+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U12" s="26">
         <f>$I12+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V12" s="26">
         <f>$I12+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2339,58 +2430,58 @@
         <v>MSK</v>
       </c>
       <c r="I13" s="26">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="10">
         <f>$I13+Sheet2!B$1/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="L13" s="26">
         <f>$I13+Sheet2!B$2/24</f>
-        <v>1</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="M13" s="26">
         <f>$I13+Sheet2!B$3/24</f>
-        <v>0.95833333333333326</v>
+        <v>1</v>
       </c>
       <c r="N13" s="26">
         <f>$I13+Sheet2!B$4/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O13" s="26">
         <f>$I13+Sheet2!B$5/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P13" s="26">
         <f>$I13+Sheet2!B$6/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q13" s="26">
         <f>$I13+Sheet2!B$7/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="R13" s="26">
         <f>$I13+Sheet2!B$8/24</f>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="S13" s="26">
         <f>$I13+Sheet2!B$9/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="T13" s="26">
         <f>$I13+Sheet2!B$10/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="U13" s="26">
         <f>$I13+Sheet2!B$11/24</f>
-        <v>0.375</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="V13" s="26">
         <f>$I13+Sheet2!B$12/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2420,58 +2511,58 @@
         <v>TRT</v>
       </c>
       <c r="I14" s="15">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="29">
         <f>$I14+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="L14" s="15">
         <f>$I14+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M14" s="15">
         <f>$I14+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N14" s="15">
         <f>$I14+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O14" s="15">
         <f>$I14+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P14" s="15">
         <f>$I14+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q14" s="15">
         <f>$I14+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R14" s="15">
         <f>$I14+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.75</v>
       </c>
       <c r="S14" s="15">
         <f>$I14+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T14" s="15">
         <f>$I14+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="U14" s="15">
         <f>$I14+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V14" s="15">
         <f>$I14+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2500,59 +2591,59 @@
         <f>Sheet2!$A$6</f>
         <v>EEST</v>
       </c>
-      <c r="I15" s="26">
-        <v>0.66666666666666663</v>
+      <c r="I15" s="15">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="28">
         <f>$I15+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="L15" s="26">
         <f>$I15+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M15" s="26">
         <f>$I15+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N15" s="26">
         <f>$I15+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O15" s="26">
         <f>$I15+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P15" s="26">
         <f>$I15+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q15" s="26">
         <f>$I15+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R15" s="26">
         <f>$I15+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.75</v>
       </c>
       <c r="S15" s="26">
         <f>$I15+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T15" s="26">
         <f>$I15+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="U15" s="26">
         <f>$I15+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V15" s="26">
         <f>$I15+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2581,59 +2672,59 @@
         <f>Sheet2!$A$6</f>
         <v>EEST</v>
       </c>
-      <c r="I16" s="26">
-        <v>0.66666666666666663</v>
+      <c r="I16" s="15">
+        <v>0.70833333333333337</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="28">
         <f>$I16+Sheet2!B$1/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="L16" s="26">
         <f>$I16+Sheet2!B$2/24</f>
-        <v>1.0416666666666665</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="M16" s="26">
         <f>$I16+Sheet2!B$3/24</f>
-        <v>1</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="N16" s="26">
         <f>$I16+Sheet2!B$4/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O16" s="26">
         <f>$I16+Sheet2!B$5/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P16" s="26">
         <f>$I16+Sheet2!B$6/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q16" s="26">
         <f>$I16+Sheet2!B$7/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="R16" s="26">
         <f>$I16+Sheet2!B$8/24</f>
-        <v>0.70833333333333326</v>
+        <v>0.75</v>
       </c>
       <c r="S16" s="26">
         <f>$I16+Sheet2!B$9/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="T16" s="26">
         <f>$I16+Sheet2!B$10/24</f>
-        <v>0.45833333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="U16" s="26">
         <f>$I16+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="V16" s="26">
         <f>$I16+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2663,58 +2754,58 @@
         <v>CEST</v>
       </c>
       <c r="I17" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="28">
         <f>$I17+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L17" s="26">
         <f>$I17+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M17" s="26">
         <f>$I17+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N17" s="26">
         <f>$I17+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O17" s="26">
         <f>$I17+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P17" s="26">
         <f>$I17+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q17" s="26">
         <f>$I17+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R17" s="26">
         <f>$I17+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S17" s="26">
         <f>$I17+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T17" s="26">
         <f>$I17+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U17" s="26">
         <f>$I17+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V17" s="26">
         <f>$I17+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2744,58 +2835,58 @@
         <v>CEST</v>
       </c>
       <c r="I18" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="10">
         <f>$I18+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L18" s="26">
         <f>$I18+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M18" s="26">
         <f>$I18+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N18" s="26">
         <f>$I18+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O18" s="26">
         <f>$I18+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P18" s="26">
         <f>$I18+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q18" s="26">
         <f>$I18+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R18" s="26">
         <f>$I18+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S18" s="26">
         <f>$I18+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T18" s="26">
         <f>$I18+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U18" s="26">
         <f>$I18+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V18" s="26">
         <f>$I18+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2825,58 +2916,58 @@
         <v>CEST</v>
       </c>
       <c r="I19" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="28">
         <f>$I19+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L19" s="26">
         <f>$I19+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M19" s="26">
         <f>$I19+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N19" s="26">
         <f>$I19+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O19" s="26">
         <f>$I19+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P19" s="26">
         <f>$I19+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q19" s="26">
         <f>$I19+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R19" s="26">
         <f>$I19+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S19" s="26">
         <f>$I19+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T19" s="26">
         <f>$I19+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U19" s="26">
         <f>$I19+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V19" s="26">
         <f>$I19+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2906,58 +2997,58 @@
         <v>CEST</v>
       </c>
       <c r="I20" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J20" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="28">
         <f>$I20+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L20" s="26">
         <f>$I20+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M20" s="26">
         <f>$I20+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N20" s="26">
         <f>$I20+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O20" s="26">
         <f>$I20+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P20" s="26">
         <f>$I20+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q20" s="26">
         <f>$I20+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R20" s="26">
         <f>$I20+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S20" s="26">
         <f>$I20+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T20" s="26">
         <f>$I20+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U20" s="26">
         <f>$I20+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V20" s="26">
         <f>$I20+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2987,58 +3078,58 @@
         <v>CEST</v>
       </c>
       <c r="I21" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J21" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="28">
         <f>$I21+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L21" s="26">
         <f>$I21+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M21" s="26">
         <f>$I21+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N21" s="26">
         <f>$I21+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O21" s="26">
         <f>$I21+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P21" s="26">
         <f>$I21+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q21" s="26">
         <f>$I21+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R21" s="26">
         <f>$I21+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S21" s="26">
         <f>$I21+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T21" s="26">
         <f>$I21+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U21" s="26">
         <f>$I21+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V21" s="26">
         <f>$I21+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3068,58 +3159,58 @@
         <v>CEST</v>
       </c>
       <c r="I22" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J22" s="34" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="10">
         <f>$I22+Sheet2!B$1/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="L22" s="26">
         <f>$I22+Sheet2!B$2/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.125</v>
       </c>
       <c r="M22" s="26">
         <f>$I22+Sheet2!B$3/24</f>
-        <v>1.0416666666666667</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="N22" s="26">
         <f>$I22+Sheet2!B$4/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="O22" s="26">
         <f>$I22+Sheet2!B$5/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P22" s="26">
         <f>$I22+Sheet2!B$6/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="Q22" s="26">
         <f>$I22+Sheet2!B$7/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R22" s="26">
         <f>$I22+Sheet2!B$8/24</f>
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="S22" s="26">
         <f>$I22+Sheet2!B$9/24</f>
-        <v>0.54166666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T22" s="26">
         <f>$I22+Sheet2!B$10/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="U22" s="26">
         <f>$I22+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V22" s="26">
         <f>$I22+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3148,58 +3239,58 @@
         <v>12</v>
       </c>
       <c r="I23" s="15">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="35">
         <f>$I23+Sheet2!B$1/24</f>
-        <v>1.1666666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="L23" s="15">
         <f>$I23+Sheet2!B$2/24</f>
-        <v>1.125</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="M23" s="15">
         <f>$I23+Sheet2!B$3/24</f>
-        <v>1.0833333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="N23" s="15">
         <f>$I23+Sheet2!B$4/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O23" s="15">
         <f>$I23+Sheet2!B$5/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P23" s="15">
         <f>$I23+Sheet2!B$6/24</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="Q23" s="15">
         <f>$I23+Sheet2!B$7/24</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="R23" s="15">
         <f>$I23+Sheet2!B$8/24</f>
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="S23" s="15">
         <f>$I23+Sheet2!B$9/24</f>
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="T23" s="15">
         <f>$I23+Sheet2!B$10/24</f>
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="U23" s="15">
         <f>$I23+Sheet2!B$11/24</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V23" s="15">
         <f>$I23+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3231,58 +3322,58 @@
         <v>EDT</v>
       </c>
       <c r="I24" s="26">
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="10">
         <f>$I24+Sheet2!B$1/24</f>
-        <v>1.3333333333333337</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L24" s="26">
         <f>$I24+Sheet2!B$2/24</f>
-        <v>1.291666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="M24" s="26">
         <f>$I24+Sheet2!B$3/24</f>
-        <v>1.2500000000000002</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N24" s="26">
         <f>$I24+Sheet2!B$4/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="O24" s="26">
         <f>$I24+Sheet2!B$5/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="P24" s="26">
         <f>$I24+Sheet2!B$6/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="26">
         <f>$I24+Sheet2!B$7/24</f>
-        <v>1.0000000000000002</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R24" s="26">
         <f>$I24+Sheet2!B$8/24</f>
-        <v>0.95833333333333359</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S24" s="26">
         <f>$I24+Sheet2!B$9/24</f>
-        <v>0.75000000000000033</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T24" s="26">
         <f>$I24+Sheet2!B$10/24</f>
-        <v>0.70833333333333359</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U24" s="26">
         <f>$I24+Sheet2!B$11/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="V24" s="26">
         <f>$I24+Sheet2!B$12/24</f>
-        <v>0.62500000000000022</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3312,58 +3403,58 @@
         <v>EDT</v>
       </c>
       <c r="I25" s="26">
-        <v>0.91666666666666696</v>
+        <v>0.875</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="28">
         <f>$I25+Sheet2!B$1/24</f>
-        <v>1.3333333333333337</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="L25" s="26">
         <f>$I25+Sheet2!B$2/24</f>
-        <v>1.291666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="M25" s="26">
         <f>$I25+Sheet2!B$3/24</f>
-        <v>1.2500000000000002</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N25" s="26">
         <f>$I25+Sheet2!B$4/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="O25" s="26">
         <f>$I25+Sheet2!B$5/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="P25" s="26">
         <f>$I25+Sheet2!B$6/24</f>
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="26">
         <f>$I25+Sheet2!B$7/24</f>
-        <v>1.0000000000000002</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="R25" s="26">
         <f>$I25+Sheet2!B$8/24</f>
-        <v>0.95833333333333359</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S25" s="26">
         <f>$I25+Sheet2!B$9/24</f>
-        <v>0.75000000000000033</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="T25" s="26">
         <f>$I25+Sheet2!B$10/24</f>
-        <v>0.70833333333333359</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U25" s="26">
         <f>$I25+Sheet2!B$11/24</f>
-        <v>0.66666666666666696</v>
+        <v>0.625</v>
       </c>
       <c r="V25" s="26">
         <f>$I25+Sheet2!B$12/24</f>
-        <v>0.62500000000000022</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3393,58 +3484,58 @@
         <v>EDT</v>
       </c>
       <c r="I26" s="26">
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="28">
         <f>$I26+Sheet2!B$1/24</f>
-        <v>1.375</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L26" s="26">
         <f>$I26+Sheet2!B$2/24</f>
-        <v>1.3333333333333335</v>
+        <v>1.2916666666666665</v>
       </c>
       <c r="M26" s="26">
         <f>$I26+Sheet2!B$3/24</f>
-        <v>1.2916666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="N26" s="26">
         <f>$I26+Sheet2!B$4/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="O26" s="26">
         <f>$I26+Sheet2!B$5/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="P26" s="26">
         <f>$I26+Sheet2!B$6/24</f>
-        <v>1.0833333333333335</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="Q26" s="26">
         <f>$I26+Sheet2!B$7/24</f>
-        <v>1.0416666666666667</v>
+        <v>1</v>
       </c>
       <c r="R26" s="26">
         <f>$I26+Sheet2!B$8/24</f>
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="S26" s="26">
         <f>$I26+Sheet2!B$9/24</f>
-        <v>0.79166666666666674</v>
+        <v>0.75</v>
       </c>
       <c r="T26" s="26">
         <f>$I26+Sheet2!B$10/24</f>
-        <v>0.75</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="U26" s="26">
         <f>$I26+Sheet2!B$11/24</f>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V26" s="26">
         <f>$I26+Sheet2!B$12/24</f>
-        <v>0.66666666666666674</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -4177,11 +4268,11 @@
     <sortCondition ref="D2:D29"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4191,172 +4282,192 @@
     <mergeCell ref="A5:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:V8 K4:L5 K10:V19 K21:V25 K27:V35">
-    <cfRule type="expression" dxfId="33" priority="76">
+    <cfRule type="expression" dxfId="46" priority="80">
       <formula>K$1=$H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:V5">
-    <cfRule type="expression" dxfId="32" priority="78">
+    <cfRule type="expression" dxfId="45" priority="82">
       <formula>K$1=$I4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6 B12:B14 B10 E10:V10 E12:V12 E5:E6 E14:V14 E13 G13:V13 G5:V6 C5:D8 G16:V16 E15:F16 B16:B19 E17:V19 C10:D19 B21:V25 B27:B30 E27:V30 C27:D35">
-    <cfRule type="expression" dxfId="31" priority="82">
+  <conditionalFormatting sqref="B5:B6 B12:B14 B10 E10:V10 E12:H12 E5:E6 E14:V14 E13 G13:H13 G5:V6 C5:D8 E15:F16 B16:B19 C10:D19 B27:B30 E27:V30 C27:D35 G16:V16 E17:V19 B21:V25 J12:V13">
+    <cfRule type="expression" dxfId="44" priority="86">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:V15">
-    <cfRule type="expression" dxfId="30" priority="59">
+  <conditionalFormatting sqref="G15:H15 J15:V15">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="29" priority="57">
+    <cfRule type="expression" dxfId="42" priority="61">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 E11 G11:V11">
-    <cfRule type="expression" dxfId="28" priority="55">
+    <cfRule type="expression" dxfId="41" priority="59">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31 E31:V31">
-    <cfRule type="expression" dxfId="27" priority="47">
+    <cfRule type="expression" dxfId="40" priority="51">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 E32:V32">
-    <cfRule type="expression" dxfId="26" priority="43">
+    <cfRule type="expression" dxfId="39" priority="47">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33 E33:V33">
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="38" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 E34:V34">
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35 E35:V35">
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 E7:V7">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 E8:V8">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>K$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:V3">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>K$1=$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:V3 C4:D4">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 E4 G4:V4">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:V2">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E2 G2:V2">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="25" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="22" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:V9">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>K$1=$H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:D9">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9 E9 G9:V9">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:V20">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>K$1=$H20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:V20">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="B20:H20 J20:V20">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:V26">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>K$1=$H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:V26">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWGoH_Shard.xlsx
+++ b/SWGoH_Shard.xlsx
@@ -20,8 +20,8 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="All Columns &amp; Rows" guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="selected" guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t xml:space="preserve">:flag_ua: </t>
+  </si>
+  <si>
+    <t>EEST</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,12 +759,72 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF920000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF305496"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -877,125 +940,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF305496"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF920000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1415,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,11 +1380,11 @@
     <col min="9" max="9" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="20" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1475,47 +1421,39 @@
         <v>CST</v>
       </c>
       <c r="M1" s="3" t="str">
-        <f>H10</f>
-        <v>CST</v>
+        <f>H11</f>
+        <v>MSK</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>H12</f>
-        <v>MSK</v>
+        <f>H14</f>
+        <v>EEST</v>
       </c>
       <c r="O1" s="3" t="str">
-        <f>H14</f>
-        <v>TRT</v>
+        <f>H17</f>
+        <v>CEST</v>
       </c>
       <c r="P1" s="3" t="str">
-        <f>H16</f>
-        <v>EEST</v>
-      </c>
-      <c r="Q1" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R1" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S1" s="3" t="str">
+        <f>H23</f>
+        <v>BST</v>
+      </c>
+      <c r="Q1" s="3" t="str">
         <f>H24</f>
         <v>EDT</v>
       </c>
-      <c r="T1" s="3" t="str">
+      <c r="R1" s="3" t="str">
         <f>H28</f>
         <v>CDT</v>
       </c>
-      <c r="U1" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V1" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="3" t="str">
+        <f>H31</f>
+        <v>MDT</v>
+      </c>
+      <c r="T1" s="3" t="str">
+        <f>H35</f>
+        <v>PDT</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="5" t="s">
         <v>57</v>
@@ -1584,16 +1522,8 @@
         <f>$I2+Sheet2!B$10/24</f>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="U2" s="10">
-        <f>$I2+Sheet2!B$11/24</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="V2" s="10">
-        <f>$I2+Sheet2!B$12/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="5" t="s">
         <v>86</v>
@@ -1664,16 +1594,8 @@
         <f>$I3+Sheet2!B$10/24</f>
         <v>0.12499999999999997</v>
       </c>
-      <c r="U3" s="10">
-        <f>$I3+Sheet2!B$11/24</f>
-        <v>8.3333333333333315E-2</v>
-      </c>
-      <c r="V3" s="10">
-        <f>$I3+Sheet2!B$12/24</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
       <c r="B4" s="5" t="s">
         <v>54</v>
@@ -1744,16 +1666,8 @@
         <f>$I4+Sheet2!B$10/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U4" s="10">
-        <f>$I4+Sheet2!B$11/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="V4" s="10">
-        <f>$I4+Sheet2!B$12/24</f>
-        <v>8.3333333333333315E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
@@ -1826,16 +1740,8 @@
         <f>$I5+Sheet2!B$10/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U5" s="10">
-        <f>$I5+Sheet2!B$11/24</f>
-        <v>0.125</v>
-      </c>
-      <c r="V5" s="10">
-        <f>$I5+Sheet2!B$12/24</f>
-        <v>8.3333333333333315E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="11" t="s">
         <v>52</v>
@@ -1906,16 +1812,8 @@
         <f>$I6+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U6" s="15">
-        <f>$I6+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="V6" s="15">
-        <f>$I6+Sheet2!B$12/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="17" t="s">
         <v>51</v>
@@ -1951,7 +1849,7 @@
         <f>$I7+Sheet2!B$1/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="49">
         <f>$I7+Sheet2!B$2/24</f>
         <v>0.79166666666666674</v>
       </c>
@@ -1987,16 +1885,8 @@
         <f>$I7+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U7" s="20">
-        <f>$I7+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="V7" s="20">
-        <f>$I7+Sheet2!B$12/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="17" t="s">
         <v>50</v>
@@ -2068,16 +1958,8 @@
         <f>$I8+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U8" s="20">
-        <f>$I8+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="V8" s="20">
-        <f>$I8+Sheet2!B$12/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="17" t="s">
         <v>91</v>
@@ -2113,7 +1995,7 @@
         <f>$I9+Sheet2!B$1/24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="49">
         <f>$I9+Sheet2!B$2/24</f>
         <v>0.79166666666666674</v>
       </c>
@@ -2149,16 +2031,8 @@
         <f>$I9+Sheet2!B$10/24</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="U9" s="20">
-        <f>$I9+Sheet2!B$11/24</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="V9" s="20">
-        <f>$I9+Sheet2!B$12/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="17" t="s">
         <v>49</v>
@@ -2230,16 +2104,8 @@
         <f>$I10+Sheet2!B$10/24</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="U10" s="20">
-        <f>$I10+Sheet2!B$11/24</f>
-        <v>0.25</v>
-      </c>
-      <c r="V10" s="20">
-        <f>$I10+Sheet2!B$12/24</f>
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
         <v>39</v>
@@ -2311,16 +2177,8 @@
         <f>$I11+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="U11" s="26">
-        <f>$I11+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="V11" s="26">
-        <f>$I11+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>28</v>
       </c>
@@ -2394,16 +2252,8 @@
         <f>$I12+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="U12" s="26">
-        <f>$I12+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="V12" s="26">
-        <f>$I12+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="22" t="s">
         <v>64</v>
@@ -2475,16 +2325,8 @@
         <f>$I13+Sheet2!B$10/24</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="U13" s="26">
-        <f>$I13+Sheet2!B$11/24</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="V13" s="26">
-        <f>$I13+Sheet2!B$12/24</f>
-        <v>0.37499999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
         <v>37</v>
@@ -2506,9 +2348,8 @@
       <c r="G14" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="14" t="str">
-        <f>Sheet2!$A$5</f>
-        <v>TRT</v>
+      <c r="H14" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="I14" s="15">
         <v>0.70833333333333337</v>
@@ -2556,16 +2397,8 @@
         <f>$I14+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U14" s="15">
-        <f>$I14+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="V14" s="15">
-        <f>$I14+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="22" t="s">
         <v>62</v>
@@ -2637,16 +2470,8 @@
         <f>$I15+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U15" s="26">
-        <f>$I15+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="V15" s="26">
-        <f>$I15+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="22" t="s">
         <v>61</v>
@@ -2718,16 +2543,8 @@
         <f>$I16+Sheet2!B$10/24</f>
         <v>0.5</v>
       </c>
-      <c r="U16" s="26">
-        <f>$I16+Sheet2!B$11/24</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="V16" s="26">
-        <f>$I16+Sheet2!B$12/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="22" t="s">
         <v>33</v>
@@ -2799,16 +2616,8 @@
         <f>$I17+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U17" s="26">
-        <f>$I17+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="26">
-        <f>$I17+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="22" t="s">
         <v>32</v>
@@ -2880,16 +2689,8 @@
         <f>$I18+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U18" s="26">
-        <f>$I18+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V18" s="26">
-        <f>$I18+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="22" t="s">
         <v>31</v>
@@ -2961,16 +2762,8 @@
         <f>$I19+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U19" s="26">
-        <f>$I19+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V19" s="26">
-        <f>$I19+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="22" t="s">
         <v>95</v>
@@ -3042,16 +2835,8 @@
         <f>$I20+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U20" s="26">
-        <f>$I20+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V20" s="26">
-        <f>$I20+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="22" t="s">
         <v>34</v>
@@ -3123,16 +2908,8 @@
         <f>$I21+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U21" s="26">
-        <f>$I21+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V21" s="26">
-        <f>$I21+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="22" t="s">
         <v>35</v>
@@ -3204,16 +2981,8 @@
         <f>$I22+Sheet2!B$10/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="U22" s="26">
-        <f>$I22+Sheet2!B$11/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="V22" s="26">
-        <f>$I22+Sheet2!B$12/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="11" t="s">
         <v>97</v>
@@ -3284,16 +3053,8 @@
         <f>$I23+Sheet2!B$10/24</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="U23" s="15">
-        <f>$I23+Sheet2!B$11/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="V23" s="15">
-        <f>$I23+Sheet2!B$12/24</f>
-        <v>0.49999999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
@@ -3367,16 +3128,8 @@
         <f>$I24+Sheet2!B$10/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U24" s="26">
-        <f>$I24+Sheet2!B$11/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="V24" s="26">
-        <f>$I24+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="22" t="s">
         <v>99</v>
@@ -3448,16 +3201,8 @@
         <f>$I25+Sheet2!B$10/24</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="U25" s="26">
-        <f>$I25+Sheet2!B$11/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="V25" s="26">
-        <f>$I25+Sheet2!B$12/24</f>
-        <v>0.58333333333333326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="22" t="s">
         <v>101</v>
@@ -3529,16 +3274,8 @@
         <f>$I26+Sheet2!B$10/24</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="U26" s="26">
-        <f>$I26+Sheet2!B$11/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V26" s="26">
-        <f>$I26+Sheet2!B$12/24</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>42</v>
@@ -3610,16 +3347,8 @@
         <f>$I27+Sheet2!B$10/24</f>
         <v>0.75000000000000022</v>
       </c>
-      <c r="U27" s="15">
-        <f>$I27+Sheet2!B$11/24</f>
-        <v>0.70833333333333359</v>
-      </c>
-      <c r="V27" s="15">
-        <f>$I27+Sheet2!B$12/24</f>
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="22" t="s">
         <v>106</v>
@@ -3691,16 +3420,8 @@
         <f>$I28+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="U28" s="26">
-        <f>$I28+Sheet2!B$11/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="V28" s="26">
-        <f>$I28+Sheet2!B$12/24</f>
-        <v>0.6666666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="22" t="s">
         <v>43</v>
@@ -3772,16 +3493,8 @@
         <f>$I29+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="U29" s="26">
-        <f>$I29+Sheet2!B$11/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="V29" s="26">
-        <f>$I29+Sheet2!B$12/24</f>
-        <v>0.6666666666666663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="22" t="s">
         <v>44</v>
@@ -3853,16 +3566,8 @@
         <f>$I30+Sheet2!B$10/24</f>
         <v>0.74999999999999967</v>
       </c>
-      <c r="U30" s="26">
-        <f>$I30+Sheet2!B$11/24</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="V30" s="26">
-        <f>$I30+Sheet2!B$12/24</f>
-        <v>0.6666666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="36" t="s">
         <v>45</v>
@@ -3933,16 +3638,8 @@
         <f>$I31+Sheet2!B$10/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="U31" s="15">
-        <f>$I31+Sheet2!B$11/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="V31" s="15">
-        <f>$I31+Sheet2!B$12/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="36" t="s">
         <v>60</v>
@@ -4013,16 +3710,8 @@
         <f>$I32+Sheet2!B$10/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="U32" s="15">
-        <f>$I32+Sheet2!B$11/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="V32" s="15">
-        <f>$I32+Sheet2!B$12/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="36" t="s">
         <v>46</v>
@@ -4093,16 +3782,8 @@
         <f>$I33+Sheet2!B$10/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="U33" s="15">
-        <f>$I33+Sheet2!B$11/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="V33" s="15">
-        <f>$I33+Sheet2!B$12/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="36" t="s">
         <v>47</v>
@@ -4173,16 +3854,8 @@
         <f>$I34+Sheet2!B$10/24</f>
         <v>0.79166666666666663</v>
       </c>
-      <c r="U34" s="15">
-        <f>$I34+Sheet2!B$11/24</f>
-        <v>0.75</v>
-      </c>
-      <c r="V34" s="15">
-        <f>$I34+Sheet2!B$12/24</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="22" t="s">
         <v>48</v>
@@ -4253,14 +3926,6 @@
       <c r="T35" s="15">
         <f>$I35+Sheet2!B$10/24</f>
         <v>0.83333333333333359</v>
-      </c>
-      <c r="U35" s="15">
-        <f>$I35+Sheet2!B$11/24</f>
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="V35" s="15">
-        <f>$I35+Sheet2!B$12/24</f>
-        <v>0.75000000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -4268,11 +3933,11 @@
     <sortCondition ref="D2:D29"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
+    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6B6C704A-4C22-4616-B5BC-59850AE98E27}" hiddenColumns="1">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{5D2AD3E2-CA0C-430D-85FE-AC4E745B5F2D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4281,192 +3946,177 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A5:A10"/>
   </mergeCells>
-  <conditionalFormatting sqref="K6:V8 K4:L5 K10:V19 K21:V25 K27:V35">
-    <cfRule type="expression" dxfId="46" priority="80">
+  <conditionalFormatting sqref="K4:L5 K6:T35">
+    <cfRule type="expression" dxfId="38" priority="82">
       <formula>K$1=$H4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:V5">
-    <cfRule type="expression" dxfId="45" priority="82">
-      <formula>K$1=$I4</formula>
+  <conditionalFormatting sqref="K2:T5">
+    <cfRule type="expression" dxfId="37" priority="84">
+      <formula>K$1=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6 B12:B14 B10 E10:V10 E12:H12 E5:E6 E14:V14 E13 G13:H13 G5:V6 C5:D8 E15:F16 B16:B19 C10:D19 B27:B30 E27:V30 C27:D35 G16:V16 E17:V19 B21:V25 J12:V13">
-    <cfRule type="expression" dxfId="44" priority="86">
+  <conditionalFormatting sqref="B5:B6 B12:B14 B10 E10:T10 E12:H12 E5:E6 E14:T14 E13 G13:H13 G5:T6 C5:D8 E15:F16 B16:B19 C10:D19 B27:B30 E27:T30 C27:D35 G16:T16 E17:T19 B21:T25 J12:T13">
+    <cfRule type="expression" dxfId="36" priority="88">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15 J15:V15">
-    <cfRule type="expression" dxfId="43" priority="63">
+  <conditionalFormatting sqref="G15:H15 J15:T15">
+    <cfRule type="expression" dxfId="35" priority="65">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="42" priority="61">
+    <cfRule type="expression" dxfId="34" priority="63">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11 E11 G11:V11">
-    <cfRule type="expression" dxfId="41" priority="59">
+  <conditionalFormatting sqref="B11 E11 G11:T11">
+    <cfRule type="expression" dxfId="33" priority="61">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31 E31:V31">
-    <cfRule type="expression" dxfId="40" priority="51">
+  <conditionalFormatting sqref="B31 E31:T31">
+    <cfRule type="expression" dxfId="32" priority="53">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32 E32:V32">
-    <cfRule type="expression" dxfId="39" priority="47">
+  <conditionalFormatting sqref="B32 E32:T32">
+    <cfRule type="expression" dxfId="31" priority="49">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33 E33:V33">
-    <cfRule type="expression" dxfId="38" priority="45">
+  <conditionalFormatting sqref="B33 E33:T33">
+    <cfRule type="expression" dxfId="30" priority="47">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34 E34:V34">
-    <cfRule type="expression" dxfId="37" priority="43">
+  <conditionalFormatting sqref="B34 E34:T34">
+    <cfRule type="expression" dxfId="29" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35 E35:V35">
-    <cfRule type="expression" dxfId="36" priority="41">
+  <conditionalFormatting sqref="B35 E35:T35">
+    <cfRule type="expression" dxfId="28" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7 E7:V7">
-    <cfRule type="expression" dxfId="35" priority="35">
+  <conditionalFormatting sqref="B7 E7:T7">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8 E8:V8">
-    <cfRule type="expression" dxfId="34" priority="33">
+  <conditionalFormatting sqref="B8 E8:T8">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>K$1=$H3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:V3">
-    <cfRule type="expression" dxfId="32" priority="30">
-      <formula>K$1=$I3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:V3 C4:D4">
-    <cfRule type="expression" dxfId="31" priority="31">
+  <conditionalFormatting sqref="B3:T3 C4:D4">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4 E4 G4:V4">
-    <cfRule type="expression" dxfId="30" priority="25">
+  <conditionalFormatting sqref="B4 E4 G4:T4">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>K$1=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:V2">
-    <cfRule type="expression" dxfId="28" priority="21">
-      <formula>K$1=$I2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E2 G2:V2">
-    <cfRule type="expression" dxfId="27" priority="22">
+  <conditionalFormatting sqref="B2:E2 G2:T2">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:V9">
-    <cfRule type="expression" dxfId="20" priority="11">
-      <formula>K$1=$H9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C9:D9">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9 E9 G9:V9">
-    <cfRule type="expression" dxfId="18" priority="10">
+  <conditionalFormatting sqref="B9 E9 G9:T9">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:V20">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>K$1=$H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:H20 J20:V20">
-    <cfRule type="expression" dxfId="15" priority="8">
+  <conditionalFormatting sqref="B20:H20 J20:T20">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:V26">
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>K$1=$H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:V26">
-    <cfRule type="expression" dxfId="13" priority="6">
+  <conditionalFormatting sqref="B26:T26">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
